--- a/DOM_Banner/output/dept_banner/Saman Nematollahi_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Saman Nematollahi_2022.xlsx
@@ -751,22 +751,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>JAMA network open</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://openalex.org/S4210217848</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>American Medical Association</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2574-3805</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/DOM_Banner/output/dept_banner/Saman Nematollahi_2022.xlsx
+++ b/DOM_Banner/output/dept_banner/Saman Nematollahi_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, Emory University School of Medicine , Atlanta, Georgia , USA; Nebraska Department of Health and Human Services , Lincoln, Nebraska , USA; Department of Medicine, University of Arizona College of Medicine , Tucson, Arizona , USA; Visual Medical Education, Emory University School of Medicine , Atlanta, Georgia , USA; Infectious Diseases Section, Department of Medicine, Baylor College of Medicine , Houston, Texas , USA; Medical Care Line, Michael E. DeBakey Veterans Affairs Medical Center , Houston, Texas , USA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4283381433</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Monkeypox: A Contemporary Review for Healthcare Professionals</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2022-06-23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac310</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>159</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35891689</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac310</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Department of Physiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Department of Preventive and Social Medicine, Faculty of Medicine Siriraj Hospital, Mahidol University, Bangkok, Thailand; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, Maryland; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, Maryland; Department of Medicine, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Faculty of Allied Health Sciences, Chulalongkorn University, Bangkok, Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, Maryland; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Department of Medicine, Massachusetts General Hospital, Boston; Department of Medicine, Brigham and Women’s Hospital, Boston, Massachusetts; Department of Medicine, University of Arizona College of Medicine, Tucson; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, Maryland; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223436440</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Immunogenicity and Risk Factors Associated With Poor Humoral Immune Response of SARS-CoV-2 Vaccines in Recipients of Solid Organ Transplant</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>JAMA network open</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>American Medical Association</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamanetworkopen.2022.6822</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>64</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35412626</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.1001/jamanetworkopen.2022.6822</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Department of Physiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Department of Medicine, University of Arizona College of Medicine, Tucson, USA; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, USA; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Faculty of Allied Health Sciences, Chulalongkorn University, Bangkok, Thailand; Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; Department of Preventive and Social Medicine, Faculty of Medicine Siriraj Hospital, Mahidol University, Bangkok, Thailand; Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, USA; Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W3213200406</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>The association of cytomegalovirus infection and cytomegalovirus serostatus with invasive fungal infections in allogeneic haematopoietic stem cell transplant recipients: a systematic review and meta-analysis</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2022-03-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Clinical Microbiology and Infection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cmi.2021.10.008</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/34752926</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.cmi.2021.10.008</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -693,75 +713,80 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, Banner University Medical Center , Tucson, Arizona , USA; Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Infectious Disease, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Department of Epidemiology and Biostatistics, College of Public Health, The University of Arizona, Tucson, Arizona, USA; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, USA; Department of Surgery, The Banner University Medical Center, Tucson, Arizona, USA; Division of Clinical Pharmacy, The Banner University Medical Center, Tucson, Arizona, USA; Department of Medicine, Banner University Medical Center Phoenix, Phoenix, Arizona, USA; Division of Clinical Data Analytics and Decision Support, Department of Medicine, College of Medicine – Phoenix, University of Arizona, Phoenix, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA; Information Systems, Naveen Jindal School of Management, The University of Texas at Dallas, Dallas, Texas, USA; Medical University of South Carolina, Lancaster, South Carolina, USA; Division of Nephrology, College of Medicine, The University of Arizona, Tucson, Arizona, USA</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4223491415</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Effectiveness of Casirivimab-Imdevimab Monoclonal Antibody Treatment Among High-Risk Patients With Severe Acute Respiratory Syndrome Coronavirus 2 B.1.617.2 (Delta Variant) Infection</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2022-04-12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac186</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35791354</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac186</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -775,75 +800,80 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>1Department of Medicine, Jackson Memorial Hospital, University of Miami, Miami, FL; 2Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; 3Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; 4Department of Preventive and Social Medicine, Faculty of Medicine Siriraj Hospital, Mahidol University, Bangkok, Thailand; 5Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD; 2Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; 3Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; 6Faculty of Medicine, Srinakharinwirot University, Nakhon Nayok, Thailand; 3Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; 7Faculty of Medicine, Chiang Mai University, Chiang Mai, Thailand; 2Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; 2Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; 5Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD; 3Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; 2Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; 8Faculty of Allied Health Sciences, Chulalongkorn University, Bangkok, Thailand; 3Department of Medicine, Faculty of Medicine, Chulalongkorn University and King Chulalongkorn Memorial Hospital, Bangkok, Thailand; 2Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; 5Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD; 9Department of Medicine, Massachusetts General Hospital, Boston, MA; 11Department of Medicine, Veterans Affairs Medical Center, West Roxbury, MA; Department of Medicine, Veterans Affairs Medical Center, West Roxbury, MA; 12Department of Medicine, University of Arizona College of Medicine, Tucson, AZ; 2Department of Microbiology, Faculty of Medicine, Chulalongkorn University, Bangkok, Thailand; 5Department of Medicine, Johns Hopkins University School of Medicine, Baltimore, MD</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311999512</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Immunogenicity of SARS-CoV-2 vaccines in patients with multiple myeloma: a systematic review and meta-analysis</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2022-12-20</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Blood Advances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/bloodadvances.2022008530</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/36538342</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>https://doi.org/10.1182/bloodadvances.2022008530</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -857,75 +887,80 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Department of Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4206938704</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>The Digital Classroom: How to Leverage Social Media for Infectious Diseases Education</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-05-15</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Clinical Infectious Diseases</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac048</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>bronze</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35568480</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/cid/ciac048</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -939,75 +974,80 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, Ohio, USA; Department of Internal Medicine, Brigham and Women’s Hospital, Boston, Massachusetts, USA; Department of Internal Medicine, University of Arizona College of Medicine, Tucson, Arizona, USA; Department of Medicine, Johns Hopkins Hospital, Baltimore, Maryland, USA; Department of Cardiology, Boston Children’s Hospital, Boston, Massachusetts, USA; Department of Medicine, UT Southwestern Medical School, Dallas, Texas, USA; Heart and Vascular Institute, University of Pittsburgh Medical Center, Pittsburgh, Pennsylvania, USA; Department of Cardiovascular Medicine, Cleveland Clinic, Cleveland, Ohio, USA</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281566770</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Medical Education in the Digital Era</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2022-06-01</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>JACC</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jacadv.2022.100031</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>hybrid</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jacadv.2022.100031</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1021,75 +1061,80 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>Division of Infectious Diseases, Washington University in St. Louis School of Medicine, St. Louis, MO, USA; Division of Infectious Diseases, Washington University in St. Louis School of Medicine, St. Louis, MO, USA; Perelman School of Medicine at the University of Pennsylvania, Philadelphia, PA, USA; Department of Medicine, University of Arizona College of Medicine, Tucson, AZ, USA; Department of Medicine, University of Michigan, Ann Arbor, MI, USA; Division of Infectious Diseases, Park Nicollet Clinic and Specialty Center, MN, USA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4281289089</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Online Learning for Infectious Disease Fellows—A Needs Assessment</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2022-05-23</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac264</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>cc-by-nc-nd</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/35854986</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac264</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1103,75 +1148,80 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Johns Hopkins , Baltimore, Maryland; Johns Hopkins Bayview Medical Center , Baltimore, Maryland; Emory University School of Medicine , Decatur , Georgia; Walter Reed National Military Medical Center , Bethesda, MD; Oregon Health &amp; Science University , Portland, Oregon; University of Texas Southwestern , Dallas, Texas; Park Nicollet Clinic and Specialty Center , Minneapolis, Minnesota; Wake Forest School of Medicine , Winston Salem, North Carolina; University of Arizona , Tucson, Arizona; Vanderbilt University Medical Center , Nashville, Tennessee; University of California , San Francisco, San Francisco, California</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4311732432</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>1300. Feedback on Abstracts Benefits Both Authors and Reviewers: Results of a Pilot Study at IDWeek 2021</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-12-01</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Open Forum Infectious Diseases</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Oxford University Press</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac492.1131</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>cc-by</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>https://doi.org/10.1093/ofid/ofac492.1131</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -1185,75 +1235,80 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Brigham and Women's Hosp, Boston, MA; Div of Cardiovascular Medicine, Univ of Maryland, Baltimore, MD; Dept of Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH; Dept of Cardiovascular Medicine, Cleveland Clinic, Cleveland, OH; Div of Infectious Disease, Univ of Arizona, Tuscon, AZ; Heart and Vascular Institute, Johns Hopkins Hosp, Baltimore, MD; Cleveland Clinic, Cleveland, OH; Univ of Pennsylvania, Philadelphia, PA; Univ of Pittsburgh Med Cntr, Pittsburgh, PA; Cleveland Clinic, Cleveland, OH</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4380794845</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Abstract 13734: CardioNerds Narratives in Cardiology Tweetorials - Using Social Media to Elevate Discussions on Diversity and Inclusion</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2022-11-08</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Circulation</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.13734</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>https://doi.org/10.1161/circ.146.suppl_1.13734</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>article</t>
         </is>
